--- a/data/scores_with_calibrated.xlsx
+++ b/data/scores_with_calibrated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CProject\ImageProcessing\Trend-similarity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A13C666-C227-40A6-9077-262129530220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCB0F2F-D375-44CF-A1B9-AF095CB523DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1788" yWindow="1824" windowWidth="25452" windowHeight="14664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6228" yWindow="1296" windowWidth="17592" windowHeight="14664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -732,6 +732,10 @@
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
     <col min="9" max="9" width="20.77734375" customWidth="1"/>
     <col min="10" max="10" width="40.33203125" customWidth="1"/>
   </cols>
